--- a/swapi_data.xlsx
+++ b/swapi_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,25 +482,35 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>films</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>vehicles</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>starships</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>created</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>edited</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -554,25 +564,35 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/14/', 'https://swapi.dev/api/vehicles/30/']</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/12/', 'https://swapi.dev/api/starships/22/']</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2014-12-09T13:50:51.644000Z</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:56.891000Z</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/1/</t>
         </is>
@@ -626,25 +646,35 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>2014-12-10T15:10:51.357000Z</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.309000Z</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/2/</t>
         </is>
@@ -698,25 +728,35 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>2014-12-10T15:11:50.376000Z</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.311000Z</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/3/</t>
         </is>
@@ -770,25 +810,35 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/13/']</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2014-12-10T15:18:20.704000Z</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.313000Z</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/4/</t>
         </is>
@@ -842,25 +892,35 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/30/']</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2014-12-10T15:20:09.791000Z</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.315000Z</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/5/</t>
         </is>
@@ -914,7 +974,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -924,15 +984,25 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2014-12-10T15:52:14.024000Z</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.317000Z</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/6/</t>
         </is>
@@ -986,7 +1056,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -996,15 +1066,25 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>2014-12-10T15:53:41.121000Z</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.319000Z</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/7/</t>
         </is>
@@ -1058,25 +1138,35 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>2014-12-10T15:57:50.959000Z</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.321000Z</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/8/</t>
         </is>
@@ -1130,25 +1220,35 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/12/']</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2014-12-10T15:59:50.509000Z</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.323000Z</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/9/</t>
         </is>
@@ -1202,25 +1302,35 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/38/']</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/48/', 'https://swapi.dev/api/starships/59/', 'https://swapi.dev/api/starships/64/', 'https://swapi.dev/api/starships/65/', 'https://swapi.dev/api/starships/74/']</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2014-12-10T16:16:29.192000Z</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.325000Z</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/10/</t>
         </is>
@@ -1274,25 +1384,35 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/44/', 'https://swapi.dev/api/vehicles/46/']</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/39/', 'https://swapi.dev/api/starships/59/', 'https://swapi.dev/api/starships/65/']</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2014-12-10T16:20:44.310000Z</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.327000Z</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/11/</t>
         </is>
@@ -1346,7 +1466,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1356,15 +1476,25 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>2014-12-10T16:26:56.138000Z</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.330000Z</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/12/</t>
         </is>
@@ -1418,25 +1548,35 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/3/']</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/19/']</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/10/', 'https://swapi.dev/api/starships/22/']</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2014-12-10T16:42:45.066000Z</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.332000Z</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/13/</t>
         </is>
@@ -1490,25 +1630,35 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/10/', 'https://swapi.dev/api/starships/22/']</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>2014-12-10T16:49:14.582000Z</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.334000Z</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/14/</t>
         </is>
@@ -1562,25 +1712,35 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/4/']</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
           <t>2014-12-10T17:03:30.334000Z</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.336000Z</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/15/</t>
         </is>
@@ -1634,25 +1794,35 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/5/']</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
           <t>2014-12-10T17:11:31.638000Z</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.338000Z</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/16/</t>
         </is>
@@ -1706,25 +1876,35 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/14/']</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/12/']</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>2014-12-12T11:08:06.469000Z</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.341000Z</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/18/</t>
         </is>
@@ -1778,25 +1958,35 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/']</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/12/']</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>2014-12-12T11:16:56.569000Z</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.343000Z</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/19/</t>
         </is>
@@ -1850,25 +2040,35 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/6/']</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
           <t>2014-12-15T12:26:01.042000Z</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.345000Z</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/20/</t>
         </is>
@@ -1922,7 +2122,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1932,15 +2132,25 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
           <t>2014-12-15T12:48:05.971000Z</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.347000Z</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/21/</t>
         </is>
@@ -1994,25 +2204,35 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/21/']</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>2014-12-15T12:49:32.457000Z</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.349000Z</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/22/</t>
         </is>
@@ -2066,25 +2286,35 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/']</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/2/']</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
           <t>2014-12-15T12:51:10.076000Z</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.351000Z</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/23/</t>
         </is>
@@ -2138,25 +2368,35 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/']</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/7/']</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
           <t>2014-12-15T12:53:49.297000Z</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.355000Z</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/24/</t>
         </is>
@@ -2210,25 +2450,35 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/', 'https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/10/']</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>2014-12-15T12:56:32.683000Z</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.357000Z</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/25/</t>
         </is>
@@ -2282,7 +2532,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/2/']</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2292,15 +2542,25 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
           <t>2014-12-15T13:01:57.178000Z</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.359000Z</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/26/</t>
         </is>
@@ -2354,25 +2614,35 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/8/']</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
           <t>2014-12-18T11:07:50.584000Z</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.362000Z</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/27/</t>
         </is>
@@ -2426,7 +2696,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2436,15 +2706,25 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
           <t>2014-12-18T11:12:38.895000Z</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.364000Z</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/28/</t>
         </is>
@@ -2498,25 +2778,35 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/28/']</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>2014-12-18T11:16:33.020000Z</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.367000Z</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/29/</t>
         </is>
@@ -2570,25 +2860,35 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/9/']</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
           <t>2014-12-18T11:21:58.954000Z</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.369000Z</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/30/</t>
         </is>
@@ -2642,25 +2942,35 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/species/10/']</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/10/']</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>2014-12-18T11:26:18.541000Z</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.371000Z</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/31/</t>
         </is>
@@ -2714,25 +3024,35 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/4/']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/38/']</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2014-12-19T16:54:53.618000Z</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.375000Z</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/32/</t>
         </is>
@@ -2786,25 +3106,35 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/11/']</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
           <t>2014-12-19T17:05:57.357000Z</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.377000Z</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/33/</t>
         </is>
@@ -2858,7 +3188,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2868,15 +3198,25 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
           <t>2014-12-19T17:21:45.915000Z</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.379000Z</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/34/</t>
         </is>
@@ -2930,25 +3270,35 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/39/', 'https://swapi.dev/api/starships/49/', 'https://swapi.dev/api/starships/64/']</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>2014-12-19T17:28:26.926000Z</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.381000Z</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/35/</t>
         </is>
@@ -3002,25 +3352,35 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/12/']</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
           <t>2014-12-19T17:29:32.489000Z</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.383000Z</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="P36" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/36/</t>
         </is>
@@ -3074,25 +3434,35 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/12/']</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
           <t>2014-12-19T17:32:56.741000Z</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.385000Z</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/37/</t>
         </is>
@@ -3146,25 +3516,35 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/12/']</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
           <t>2014-12-19T17:33:38.909000Z</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.388000Z</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/38/</t>
         </is>
@@ -3218,25 +3598,35 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/40/']</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>2014-12-19T17:45:01.522000Z</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.392000Z</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/39/</t>
         </is>
@@ -3290,25 +3680,35 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/13/']</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
           <t>2014-12-19T17:48:54.647000Z</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.395000Z</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/40/</t>
         </is>
@@ -3362,25 +3762,35 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/14/']</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
           <t>2014-12-19T17:53:02.586000Z</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.397000Z</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/41/</t>
         </is>
@@ -3434,7 +3844,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3444,15 +3854,25 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
           <t>2014-12-19T17:55:43.348000Z</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.399000Z</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/42/</t>
         </is>
@@ -3506,7 +3926,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3516,15 +3936,25 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
           <t>2014-12-19T17:57:41.191000Z</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.401000Z</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/43/</t>
         </is>
@@ -3578,25 +4008,35 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/4/']</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/22/']</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/42/']</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/41/']</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>2014-12-19T18:00:41.929000Z</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.403000Z</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/44/</t>
         </is>
@@ -3650,25 +4090,35 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/3/']</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/15/']</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
           <t>2014-12-20T09:47:02.512000Z</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.407000Z</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/45/</t>
         </is>
@@ -3722,25 +4172,35 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/15/']</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
           <t>2014-12-20T09:48:01.172000Z</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.409000Z</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/46/</t>
         </is>
@@ -3794,25 +4254,35 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/16/']</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
           <t>2014-12-20T09:53:15.086000Z</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.410000Z</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/47/</t>
         </is>
@@ -3866,25 +4336,35 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/17/']</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
           <t>2014-12-20T09:57:31.858000Z</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.414000Z</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/48/</t>
         </is>
@@ -3938,25 +4418,35 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/18/']</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
           <t>2014-12-20T10:02:12.223000Z</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.416000Z</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/49/</t>
         </is>
@@ -4010,25 +4500,35 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/19/']</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>2014-12-20T10:08:33.777000Z</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.417000Z</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/50/</t>
         </is>
@@ -4082,7 +4582,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4092,15 +4592,25 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
           <t>2014-12-20T10:12:30.846000Z</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.420000Z</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/51/</t>
         </is>
@@ -4154,25 +4664,35 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/20/']</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
           <t>2014-12-20T10:15:32.293000Z</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.422000Z</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/52/</t>
         </is>
@@ -4226,25 +4746,35 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/21/']</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
           <t>2014-12-20T10:18:57.202000Z</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="O53" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.424000Z</t>
         </is>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/53/</t>
         </is>
@@ -4298,25 +4828,35 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/22/']</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
           <t>2014-12-20T10:26:47.902000Z</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="O54" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.427000Z</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/54/</t>
         </is>
@@ -4370,25 +4910,35 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/23/']</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
           <t>2014-12-20T10:29:11.661000Z</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.432000Z</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/55/</t>
         </is>
@@ -4442,25 +4992,35 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/24/']</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
           <t>2014-12-20T10:32:11.669000Z</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.434000Z</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/56/</t>
         </is>
@@ -4514,25 +5074,35 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/']</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/25/']</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
           <t>2014-12-20T10:34:48.725000Z</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.437000Z</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/57/</t>
         </is>
@@ -4586,25 +5156,35 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/species/26/']</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/48/']</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="N58" t="inlineStr">
         <is>
           <t>2014-12-20T10:49:19.859000Z</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.439000Z</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/58/</t>
         </is>
@@ -4658,25 +5238,35 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/4/', 'https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/27/']</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
           <t>2014-12-20T10:53:26.457000Z</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.442000Z</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/59/</t>
         </is>
@@ -4730,25 +5320,35 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/starships/39/']</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="N60" t="inlineStr">
         <is>
           <t>2014-12-20T11:10:10.381000Z</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.445000Z</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/60/</t>
         </is>
@@ -4802,7 +5402,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4812,15 +5412,25 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
           <t>2014-12-20T11:11:39.630000Z</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.449000Z</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="P61" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/61/</t>
         </is>
@@ -4874,7 +5484,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4884,15 +5494,25 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
           <t>2014-12-20T15:59:03.958000Z</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="O62" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.451000Z</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/62/</t>
         </is>
@@ -4946,25 +5566,35 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/28/']</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
           <t>2014-12-20T16:40:43.977000Z</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
+      <c r="O63" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.453000Z</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/63/</t>
         </is>
@@ -5018,25 +5648,35 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/29/']</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
           <t>2014-12-20T16:45:53.668000Z</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="O64" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.455000Z</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/64/</t>
         </is>
@@ -5090,25 +5730,35 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/29/']</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
           <t>2014-12-20T16:46:40.440000Z</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
+      <c r="O65" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.457000Z</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr">
+      <c r="P65" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/65/</t>
         </is>
@@ -5162,25 +5812,35 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/1/']</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
           <t>2014-12-20T16:49:14.640000Z</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
+      <c r="O66" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.460000Z</t>
         </is>
       </c>
-      <c r="N66" t="inlineStr">
+      <c r="P66" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/66/</t>
         </is>
@@ -5234,25 +5894,35 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/1/']</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/55/']</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
         <is>
           <t>2014-12-20T16:52:14.726000Z</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
+      <c r="O67" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.462000Z</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr">
+      <c r="P67" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/67/</t>
         </is>
@@ -5306,25 +5976,35 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/1/']</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
           <t>2014-12-20T16:53:08.575000Z</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
+      <c r="O68" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.463000Z</t>
         </is>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/68/</t>
         </is>
@@ -5378,7 +6058,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5388,15 +6068,25 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
           <t>2014-12-20T16:54:41.620000Z</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="O69" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.465000Z</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="P69" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/69/</t>
         </is>
@@ -5450,25 +6140,35 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/5/']</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/30/']</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/45/']</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
         <is>
           <t>2014-12-20T16:57:44.471000Z</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.468000Z</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/70/</t>
         </is>
@@ -5522,25 +6222,35 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/31/']</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>2014-12-20T17:28:27.248000Z</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.470000Z</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/71/</t>
         </is>
@@ -5594,25 +6304,35 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/32/']</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
           <t>2014-12-20T17:30:50.416000Z</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.473000Z</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/72/</t>
         </is>
@@ -5666,25 +6386,35 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/32/']</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
           <t>2014-12-20T17:31:21.195000Z</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.474000Z</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/73/</t>
         </is>
@@ -5738,25 +6468,35 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/1/']</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
           <t>2014-12-20T17:32:51.996000Z</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.476000Z</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/74/</t>
         </is>
@@ -5810,7 +6550,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5820,15 +6560,25 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
           <t>2014-12-20T17:43:36.409000Z</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.478000Z</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/75/</t>
         </is>
@@ -5882,25 +6632,35 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/33/']</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
           <t>2014-12-20T17:53:52.607000Z</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.481000Z</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/76/</t>
         </is>
@@ -5954,25 +6714,35 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/']</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/34/']</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
           <t>2014-12-20T17:58:17.049000Z</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.484000Z</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/77/</t>
         </is>
@@ -6026,25 +6796,35 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/35/']</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
           <t>2014-12-20T18:44:01.103000Z</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.486000Z</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/78/</t>
         </is>
@@ -6098,25 +6878,35 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
+          <t>['https://swapi.dev/api/films/6/']</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>['https://swapi.dev/api/species/36/']</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
           <t>['https://swapi.dev/api/vehicles/60/']</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>['https://swapi.dev/api/starships/74/']</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>2014-12-20T19:43:53.348000Z</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.488000Z</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/79/</t>
         </is>
@@ -6170,25 +6960,35 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/3/']</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
           <t>2014-12-20T19:46:34.209000Z</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.491000Z</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/80/</t>
         </is>
@@ -6242,7 +7042,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/1/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6252,15 +7052,25 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
           <t>2014-12-20T19:49:35.583000Z</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.493000Z</t>
         </is>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/81/</t>
         </is>
@@ -6314,7 +7124,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/5/', 'https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6324,15 +7134,25 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
           <t>2014-12-20T20:18:37.619000Z</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.496000Z</t>
         </is>
       </c>
-      <c r="N82" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/82/</t>
         </is>
@@ -6386,25 +7206,35 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/films/6/']</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://swapi.dev/api/species/37/']</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
           <t>2014-12-20T20:35:04.260000Z</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="O83" t="inlineStr">
         <is>
           <t>2014-12-20T21:17:50.498000Z</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="P83" t="inlineStr">
         <is>
           <t>https://swapi.dev/api/people/83/</t>
         </is>
